--- a/Code/Results/Cases/Case_4_209/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_209/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.009208124412362</v>
+        <v>1.036217019838033</v>
       </c>
       <c r="D2">
-        <v>1.024800627765175</v>
+        <v>1.039418025472014</v>
       </c>
       <c r="E2">
-        <v>1.024426634449055</v>
+        <v>1.049455627872843</v>
       </c>
       <c r="F2">
-        <v>1.026389549141913</v>
+        <v>1.056295776982071</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044935965521173</v>
+        <v>1.037466682437606</v>
       </c>
       <c r="J2">
-        <v>1.031116867418379</v>
+        <v>1.041326542649597</v>
       </c>
       <c r="K2">
-        <v>1.035924933470737</v>
+        <v>1.042203270430258</v>
       </c>
       <c r="L2">
-        <v>1.035555841382257</v>
+        <v>1.052212637466212</v>
       </c>
       <c r="M2">
-        <v>1.037493081722406</v>
+        <v>1.059033878659115</v>
       </c>
       <c r="N2">
-        <v>1.014148057337691</v>
+        <v>1.017709500113599</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.013300142560852</v>
+        <v>1.037085915620453</v>
       </c>
       <c r="D3">
-        <v>1.027776666511681</v>
+        <v>1.040069383033446</v>
       </c>
       <c r="E3">
-        <v>1.02832306899469</v>
+        <v>1.050344663540063</v>
       </c>
       <c r="F3">
-        <v>1.030842916128007</v>
+        <v>1.057326228297207</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046051905394153</v>
+        <v>1.037655478765406</v>
       </c>
       <c r="J3">
-        <v>1.033434683907128</v>
+        <v>1.041839716938501</v>
       </c>
       <c r="K3">
-        <v>1.038066059634002</v>
+        <v>1.042665261404103</v>
       </c>
       <c r="L3">
-        <v>1.038605936118167</v>
+        <v>1.05291372443103</v>
       </c>
       <c r="M3">
-        <v>1.041095798201885</v>
+        <v>1.059877388718409</v>
       </c>
       <c r="N3">
-        <v>1.014931836829934</v>
+        <v>1.017881637530269</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.015897504089894</v>
+        <v>1.037648672763576</v>
       </c>
       <c r="D4">
-        <v>1.029668170553076</v>
+        <v>1.040491227766665</v>
       </c>
       <c r="E4">
-        <v>1.030801517038169</v>
+        <v>1.050920868549684</v>
       </c>
       <c r="F4">
-        <v>1.033676267958414</v>
+        <v>1.057994263567493</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046751681219596</v>
+        <v>1.03777668340538</v>
       </c>
       <c r="J4">
-        <v>1.034903110566979</v>
+        <v>1.042171646524717</v>
       </c>
       <c r="K4">
-        <v>1.039421242308532</v>
+        <v>1.04296388741798</v>
       </c>
       <c r="L4">
-        <v>1.040541881563194</v>
+        <v>1.053367676425191</v>
       </c>
       <c r="M4">
-        <v>1.043384554153091</v>
+        <v>1.060423850578005</v>
       </c>
       <c r="N4">
-        <v>1.015428212384021</v>
+        <v>1.017992928876836</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.016977751137905</v>
+        <v>1.037885379886713</v>
       </c>
       <c r="D5">
-        <v>1.030455405329026</v>
+        <v>1.04066865901973</v>
       </c>
       <c r="E5">
-        <v>1.031833542600369</v>
+        <v>1.051163328559539</v>
       </c>
       <c r="F5">
-        <v>1.034856249629593</v>
+        <v>1.058275406843219</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047040635401146</v>
+        <v>1.037827407612378</v>
       </c>
       <c r="J5">
-        <v>1.035513138374781</v>
+        <v>1.042311157919192</v>
       </c>
       <c r="K5">
-        <v>1.03998390212892</v>
+        <v>1.043089353776195</v>
       </c>
       <c r="L5">
-        <v>1.041347004918607</v>
+        <v>1.053558588861722</v>
       </c>
       <c r="M5">
-        <v>1.044336908382397</v>
+        <v>1.060653738498734</v>
       </c>
       <c r="N5">
-        <v>1.015634375395964</v>
+        <v>1.018039693073232</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.017158455341746</v>
+        <v>1.037925131289159</v>
       </c>
       <c r="D6">
-        <v>1.030587125674653</v>
+        <v>1.040698455607707</v>
       </c>
       <c r="E6">
-        <v>1.032006252303772</v>
+        <v>1.051204051720465</v>
       </c>
       <c r="F6">
-        <v>1.035053730580779</v>
+        <v>1.058322629659773</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0470888483988</v>
+        <v>1.037835910912477</v>
       </c>
       <c r="J6">
-        <v>1.035615142593625</v>
+        <v>1.04233458060097</v>
       </c>
       <c r="K6">
-        <v>1.040077966541708</v>
+        <v>1.043110415640825</v>
       </c>
       <c r="L6">
-        <v>1.041481683309234</v>
+        <v>1.053590648028277</v>
       </c>
       <c r="M6">
-        <v>1.044496244995123</v>
+        <v>1.060692346763942</v>
       </c>
       <c r="N6">
-        <v>1.015668845613018</v>
+        <v>1.018047543645537</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.015911983804142</v>
+        <v>1.037651835170044</v>
       </c>
       <c r="D7">
-        <v>1.029678720573771</v>
+        <v>1.040493598268967</v>
       </c>
       <c r="E7">
-        <v>1.030815345537473</v>
+        <v>1.050924107436163</v>
       </c>
       <c r="F7">
-        <v>1.033692078265996</v>
+        <v>1.057998019035803</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046755562653623</v>
+        <v>1.037777362090067</v>
       </c>
       <c r="J7">
-        <v>1.034911290198542</v>
+        <v>1.042173510809066</v>
       </c>
       <c r="K7">
-        <v>1.039428788090719</v>
+        <v>1.042965564205644</v>
       </c>
       <c r="L7">
-        <v>1.040552673685377</v>
+        <v>1.053370227129013</v>
       </c>
       <c r="M7">
-        <v>1.043397317799873</v>
+        <v>1.060426921742863</v>
       </c>
       <c r="N7">
-        <v>1.015430976931681</v>
+        <v>1.017993553831962</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.010601729425723</v>
+        <v>1.036510558065185</v>
       </c>
       <c r="D8">
-        <v>1.025813616714202</v>
+        <v>1.039638076691508</v>
       </c>
       <c r="E8">
-        <v>1.02575252165553</v>
+        <v>1.049755886215468</v>
       </c>
       <c r="F8">
-        <v>1.027904825980611</v>
+        <v>1.056643760164238</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045317790303937</v>
+        <v>1.037530685297382</v>
       </c>
       <c r="J8">
-        <v>1.031906804912999</v>
+        <v>1.041499998281799</v>
       </c>
       <c r="K8">
-        <v>1.036654920147975</v>
+        <v>1.042359466612472</v>
       </c>
       <c r="L8">
-        <v>1.036594601502768</v>
+        <v>1.052449509839828</v>
       </c>
       <c r="M8">
-        <v>1.038719623182248</v>
+        <v>1.059318810529987</v>
       </c>
       <c r="N8">
-        <v>1.014415213762633</v>
+        <v>1.017767693787905</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.000839389123028</v>
+        <v>1.034503548674164</v>
       </c>
       <c r="D9">
-        <v>1.018729983055039</v>
+        <v>1.038133461459059</v>
       </c>
       <c r="E9">
-        <v>1.016487575071599</v>
+        <v>1.047704592443709</v>
       </c>
       <c r="F9">
-        <v>1.017318436713183</v>
+        <v>1.054267130433082</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042608160121451</v>
+        <v>1.037088688891084</v>
       </c>
       <c r="J9">
-        <v>1.026362541176627</v>
+        <v>1.040312245124468</v>
       </c>
       <c r="K9">
-        <v>1.031526316439275</v>
+        <v>1.041289095281954</v>
       </c>
       <c r="L9">
-        <v>1.029318698963502</v>
+        <v>1.050829455197794</v>
       </c>
       <c r="M9">
-        <v>1.030136647100828</v>
+        <v>1.057371247747656</v>
       </c>
       <c r="N9">
-        <v>1.012539511908098</v>
+        <v>1.017369004555578</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9940313130362993</v>
+        <v>1.033168353533969</v>
       </c>
       <c r="D10">
-        <v>1.013807962704042</v>
+        <v>1.037132440965156</v>
       </c>
       <c r="E10">
-        <v>1.01005664919722</v>
+        <v>1.046342033799903</v>
       </c>
       <c r="F10">
-        <v>1.009971872436309</v>
+        <v>1.052689349736648</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040675630282619</v>
+        <v>1.036789137746173</v>
       </c>
       <c r="J10">
-        <v>1.022483759521607</v>
+        <v>1.039519840815798</v>
       </c>
       <c r="K10">
-        <v>1.027932306620773</v>
+        <v>1.040573998334805</v>
       </c>
       <c r="L10">
-        <v>1.024246671103912</v>
+        <v>1.049751083940311</v>
       </c>
       <c r="M10">
-        <v>1.024163385922008</v>
+        <v>1.056076360144942</v>
       </c>
       <c r="N10">
-        <v>1.011226596339444</v>
+        <v>1.017102768435459</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9910056011719822</v>
+        <v>1.032590882061627</v>
       </c>
       <c r="D11">
-        <v>1.011625464199823</v>
+        <v>1.036699494919174</v>
       </c>
       <c r="E11">
-        <v>1.007206096133719</v>
+        <v>1.045753228322652</v>
       </c>
       <c r="F11">
-        <v>1.006715531803693</v>
+        <v>1.052007745808406</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039807057155044</v>
+        <v>1.036658276999531</v>
       </c>
       <c r="J11">
-        <v>1.020757404532464</v>
+        <v>1.039176599000597</v>
       </c>
       <c r="K11">
-        <v>1.026331421692338</v>
+        <v>1.040264007265977</v>
       </c>
       <c r="L11">
-        <v>1.021993383629564</v>
+        <v>1.049284547667994</v>
       </c>
       <c r="M11">
-        <v>1.021511904611156</v>
+        <v>1.055516503061359</v>
       </c>
       <c r="N11">
-        <v>1.010642134001702</v>
+        <v>1.016987385132502</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9898694277064579</v>
+        <v>1.032376486392703</v>
       </c>
       <c r="D12">
-        <v>1.010806737695699</v>
+        <v>1.036538756504472</v>
       </c>
       <c r="E12">
-        <v>1.006136861395593</v>
+        <v>1.045534700225387</v>
       </c>
       <c r="F12">
-        <v>1.005494071572397</v>
+        <v>1.05175480738341</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039479486880796</v>
+        <v>1.036609496815501</v>
       </c>
       <c r="J12">
-        <v>1.020108807046759</v>
+        <v>1.039049085872673</v>
       </c>
       <c r="K12">
-        <v>1.025729785554349</v>
+        <v>1.040148811353839</v>
       </c>
       <c r="L12">
-        <v>1.021147425750147</v>
+        <v>1.049111317484688</v>
       </c>
       <c r="M12">
-        <v>1.020516765399221</v>
+        <v>1.055308674376457</v>
       </c>
       <c r="N12">
-        <v>1.010422536129636</v>
+        <v>1.016944511814853</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9901137070421341</v>
+        <v>1.032422470312568</v>
       </c>
       <c r="D13">
-        <v>1.010982727460504</v>
+        <v>1.036573231929887</v>
       </c>
       <c r="E13">
-        <v>1.006366695580935</v>
+        <v>1.045581567053494</v>
       </c>
       <c r="F13">
-        <v>1.005756628094188</v>
+        <v>1.051809052668002</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03954997836669</v>
+        <v>1.036619968135384</v>
       </c>
       <c r="J13">
-        <v>1.02024827145948</v>
+        <v>1.039076438662089</v>
       </c>
       <c r="K13">
-        <v>1.025859159953748</v>
+        <v>1.040173523578139</v>
       </c>
       <c r="L13">
-        <v>1.021329300169511</v>
+        <v>1.049148473114462</v>
       </c>
       <c r="M13">
-        <v>1.020730698722715</v>
+        <v>1.055353248559613</v>
       </c>
       <c r="N13">
-        <v>1.010469755615799</v>
+        <v>1.016953708951329</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9909119390562867</v>
+        <v>1.032573157941337</v>
       </c>
       <c r="D14">
-        <v>1.011557954331019</v>
+        <v>1.036686206651518</v>
       </c>
       <c r="E14">
-        <v>1.007117928320903</v>
+        <v>1.045735161031798</v>
       </c>
       <c r="F14">
-        <v>1.006614812138764</v>
+        <v>1.051986832942865</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039780081960193</v>
+        <v>1.036654248333551</v>
       </c>
       <c r="J14">
-        <v>1.020703943162097</v>
+        <v>1.039166059083569</v>
       </c>
       <c r="K14">
-        <v>1.026281834706816</v>
+        <v>1.040254486178888</v>
       </c>
       <c r="L14">
-        <v>1.021923642291492</v>
+        <v>1.049270227131853</v>
       </c>
       <c r="M14">
-        <v>1.02142985837265</v>
+        <v>1.055499321275833</v>
       </c>
       <c r="N14">
-        <v>1.010624033652057</v>
+        <v>1.016983841510739</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9914021089207827</v>
+        <v>1.032666015242134</v>
       </c>
       <c r="D15">
-        <v>1.011911293061737</v>
+        <v>1.036755824358545</v>
       </c>
       <c r="E15">
-        <v>1.007579392106179</v>
+        <v>1.045829819309829</v>
       </c>
       <c r="F15">
-        <v>1.007141970582326</v>
+        <v>1.052096401032404</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039921196052835</v>
+        <v>1.036675346630788</v>
       </c>
       <c r="J15">
-        <v>1.020983713403845</v>
+        <v>1.039221274850425</v>
       </c>
       <c r="K15">
-        <v>1.026541322610113</v>
+        <v>1.040304363126556</v>
       </c>
       <c r="L15">
-        <v>1.022288632483914</v>
+        <v>1.049345252073927</v>
       </c>
       <c r="M15">
-        <v>1.021859258769032</v>
+        <v>1.055589338386506</v>
       </c>
       <c r="N15">
-        <v>1.010718754592475</v>
+        <v>1.017002405223026</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9942304302583083</v>
+        <v>1.033206692781392</v>
       </c>
       <c r="D16">
-        <v>1.013951698960801</v>
+        <v>1.037161184885424</v>
       </c>
       <c r="E16">
-        <v>1.010244399459649</v>
+        <v>1.046381136107931</v>
       </c>
       <c r="F16">
-        <v>1.010186349016448</v>
+        <v>1.052734619070433</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040732590916053</v>
+        <v>1.036797798296354</v>
       </c>
       <c r="J16">
-        <v>1.022597318892668</v>
+        <v>1.039542618087352</v>
       </c>
       <c r="K16">
-        <v>1.028037587137569</v>
+        <v>1.040594564150905</v>
       </c>
       <c r="L16">
-        <v>1.024394977387821</v>
+        <v>1.04978205506613</v>
       </c>
       <c r="M16">
-        <v>1.024337944775873</v>
+        <v>1.056113533777492</v>
       </c>
       <c r="N16">
-        <v>1.011265040121646</v>
+        <v>1.017110423944891</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9959833250147627</v>
+        <v>1.033546027613846</v>
       </c>
       <c r="D17">
-        <v>1.01521763346731</v>
+        <v>1.037415592436812</v>
       </c>
       <c r="E17">
-        <v>1.011898090286311</v>
+        <v>1.046727282585935</v>
       </c>
       <c r="F17">
-        <v>1.012075448784296</v>
+        <v>1.053135381871797</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041232933941877</v>
+        <v>1.036874300666995</v>
       </c>
       <c r="J17">
-        <v>1.023596738026508</v>
+        <v>1.039744155326427</v>
       </c>
       <c r="K17">
-        <v>1.028964001705313</v>
+        <v>1.040776506799338</v>
       </c>
       <c r="L17">
-        <v>1.02570067015243</v>
+        <v>1.050056159496528</v>
       </c>
       <c r="M17">
-        <v>1.025875013304039</v>
+        <v>1.056442572910964</v>
       </c>
       <c r="N17">
-        <v>1.01160336557559</v>
+        <v>1.017178154394159</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9969982980774562</v>
+        <v>1.033744021100403</v>
       </c>
       <c r="D18">
-        <v>1.01595111349279</v>
+        <v>1.037564032431735</v>
       </c>
       <c r="E18">
-        <v>1.01285633586126</v>
+        <v>1.046929298824461</v>
       </c>
       <c r="F18">
-        <v>1.013170113166884</v>
+        <v>1.053369292918481</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041521721759986</v>
+        <v>1.036918811907514</v>
       </c>
       <c r="J18">
-        <v>1.024175187700874</v>
+        <v>1.039861696408628</v>
       </c>
       <c r="K18">
-        <v>1.029500075424854</v>
+        <v>1.040882597087329</v>
       </c>
       <c r="L18">
-        <v>1.026456781850171</v>
+        <v>1.050216079025416</v>
       </c>
       <c r="M18">
-        <v>1.026765320764248</v>
+        <v>1.056634576618494</v>
       </c>
       <c r="N18">
-        <v>1.011799172463662</v>
+        <v>1.01721765061801</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9973431299314686</v>
+        <v>1.033811542786831</v>
       </c>
       <c r="D19">
-        <v>1.016200387375194</v>
+        <v>1.037614654792283</v>
       </c>
       <c r="E19">
-        <v>1.013182015058851</v>
+        <v>1.046998200577571</v>
       </c>
       <c r="F19">
-        <v>1.013542159384753</v>
+        <v>1.053449076429566</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041619677943409</v>
+        <v>1.036933970194954</v>
       </c>
       <c r="J19">
-        <v>1.024371671079462</v>
+        <v>1.039901772783151</v>
       </c>
       <c r="K19">
-        <v>1.029682143783814</v>
+        <v>1.040918765371834</v>
       </c>
       <c r="L19">
-        <v>1.026713679560591</v>
+        <v>1.050270614038787</v>
       </c>
       <c r="M19">
-        <v>1.027067848875673</v>
+        <v>1.056700058577856</v>
       </c>
       <c r="N19">
-        <v>1.011865680659436</v>
+        <v>1.017231116135072</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9957960319522888</v>
+        <v>1.033509613442642</v>
       </c>
       <c r="D20">
-        <v>1.015082321862421</v>
+        <v>1.037388291899532</v>
       </c>
       <c r="E20">
-        <v>1.01172132263944</v>
+        <v>1.046690132454151</v>
       </c>
       <c r="F20">
-        <v>1.011873516866917</v>
+        <v>1.053092367992148</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041179568932215</v>
+        <v>1.036866104194609</v>
       </c>
       <c r="J20">
-        <v>1.02348997694849</v>
+        <v>1.039722533540406</v>
       </c>
       <c r="K20">
-        <v>1.028865051760152</v>
+        <v>1.040756989561463</v>
       </c>
       <c r="L20">
-        <v>1.025561151070021</v>
+        <v>1.050026746637055</v>
       </c>
       <c r="M20">
-        <v>1.025710749146916</v>
+        <v>1.056407261764449</v>
       </c>
       <c r="N20">
-        <v>1.01156722571745</v>
+        <v>1.017170888568862</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9906772239282786</v>
+        <v>1.03252878133844</v>
       </c>
       <c r="D21">
-        <v>1.01138878949702</v>
+        <v>1.036652936273236</v>
       </c>
       <c r="E21">
-        <v>1.006897000682781</v>
+        <v>1.04568992643958</v>
       </c>
       <c r="F21">
-        <v>1.006362432187783</v>
+        <v>1.051934474456836</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039712460070458</v>
+        <v>1.036644158431739</v>
       </c>
       <c r="J21">
-        <v>1.020569964825535</v>
+        <v>1.039139668587279</v>
       </c>
       <c r="K21">
-        <v>1.026157563054614</v>
+        <v>1.040230646122002</v>
       </c>
       <c r="L21">
-        <v>1.02174887487267</v>
+        <v>1.049234371882585</v>
       </c>
       <c r="M21">
-        <v>1.021224260648136</v>
+        <v>1.05545630298092</v>
       </c>
       <c r="N21">
-        <v>1.010578672571026</v>
+        <v>1.016974968628971</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9873873948614015</v>
+        <v>1.031912689517502</v>
       </c>
       <c r="D22">
-        <v>1.009019757230707</v>
+        <v>1.036191035401007</v>
       </c>
       <c r="E22">
-        <v>1.00380323935756</v>
+        <v>1.045062102118062</v>
       </c>
       <c r="F22">
-        <v>1.00282815519551</v>
+        <v>1.051207847919715</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038761336627083</v>
+        <v>1.036503613553379</v>
       </c>
       <c r="J22">
-        <v>1.018691325912033</v>
+        <v>1.038773095577817</v>
       </c>
       <c r="K22">
-        <v>1.024414623904288</v>
+        <v>1.039899416098033</v>
       </c>
       <c r="L22">
-        <v>1.019299727975158</v>
+        <v>1.048736534676149</v>
       </c>
       <c r="M22">
-        <v>1.018343793207214</v>
+        <v>1.054859133823249</v>
       </c>
       <c r="N22">
-        <v>1.009942594353265</v>
+        <v>1.016851700431528</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9891383788753927</v>
+        <v>1.032239234508465</v>
       </c>
       <c r="D23">
-        <v>1.010280181984968</v>
+        <v>1.036435854966131</v>
       </c>
       <c r="E23">
-        <v>1.00544921558574</v>
+        <v>1.045394824131229</v>
       </c>
       <c r="F23">
-        <v>1.004708518657495</v>
+        <v>1.051592914441809</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03926832454581</v>
+        <v>1.036578213534102</v>
       </c>
       <c r="J23">
-        <v>1.019691388262078</v>
+        <v>1.038967432256669</v>
       </c>
       <c r="K23">
-        <v>1.025342541250356</v>
+        <v>1.040075035199212</v>
       </c>
       <c r="L23">
-        <v>1.020603161563386</v>
+        <v>1.049000413041556</v>
       </c>
       <c r="M23">
-        <v>1.019876608864219</v>
+        <v>1.055175634259572</v>
       </c>
       <c r="N23">
-        <v>1.01028120593538</v>
+        <v>1.016917055211829</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9958806846374918</v>
+        <v>1.033526067237787</v>
       </c>
       <c r="D24">
-        <v>1.015143478525599</v>
+        <v>1.037400627687908</v>
       </c>
       <c r="E24">
-        <v>1.01180121583756</v>
+        <v>1.046706918644878</v>
       </c>
       <c r="F24">
-        <v>1.011964783462657</v>
+        <v>1.053111803640605</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041203691707866</v>
+        <v>1.03686980817162</v>
       </c>
       <c r="J24">
-        <v>1.023538231550817</v>
+        <v>1.039732303532553</v>
       </c>
       <c r="K24">
-        <v>1.028909776212305</v>
+        <v>1.040765808665644</v>
       </c>
       <c r="L24">
-        <v>1.025624210632989</v>
+        <v>1.050040036921655</v>
       </c>
       <c r="M24">
-        <v>1.025784992292465</v>
+        <v>1.056423217102243</v>
       </c>
       <c r="N24">
-        <v>1.01158356049246</v>
+        <v>1.017174171712889</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.003413917801485</v>
+        <v>1.035021918877716</v>
       </c>
       <c r="D25">
-        <v>1.020595211174201</v>
+        <v>1.038522084779374</v>
       </c>
       <c r="E25">
-        <v>1.018925818229902</v>
+        <v>1.048234031448076</v>
       </c>
       <c r="F25">
-        <v>1.020104070719038</v>
+        <v>1.054880382272506</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043330298179051</v>
+        <v>1.037203819467953</v>
       </c>
       <c r="J25">
-        <v>1.027826933693297</v>
+        <v>1.040619412584745</v>
       </c>
       <c r="K25">
-        <v>1.032882009543167</v>
+        <v>1.041566083825987</v>
       </c>
       <c r="L25">
-        <v>1.031237271332353</v>
+        <v>1.051247990072506</v>
       </c>
       <c r="M25">
-        <v>1.032398111942629</v>
+        <v>1.057874130445436</v>
       </c>
       <c r="N25">
-        <v>1.013035066171355</v>
+        <v>1.017472155167944</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_209/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_209/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.036217019838033</v>
+        <v>1.009208124412361</v>
       </c>
       <c r="D2">
-        <v>1.039418025472014</v>
+        <v>1.024800627765174</v>
       </c>
       <c r="E2">
-        <v>1.049455627872843</v>
+        <v>1.024426634449054</v>
       </c>
       <c r="F2">
-        <v>1.056295776982071</v>
+        <v>1.026389549141911</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037466682437606</v>
+        <v>1.044935965521173</v>
       </c>
       <c r="J2">
-        <v>1.041326542649597</v>
+        <v>1.031116867418378</v>
       </c>
       <c r="K2">
-        <v>1.042203270430258</v>
+        <v>1.035924933470735</v>
       </c>
       <c r="L2">
-        <v>1.052212637466212</v>
+        <v>1.035555841382255</v>
       </c>
       <c r="M2">
-        <v>1.059033878659115</v>
+        <v>1.037493081722405</v>
       </c>
       <c r="N2">
-        <v>1.017709500113599</v>
+        <v>1.014148057337691</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.037085915620453</v>
+        <v>1.013300142560851</v>
       </c>
       <c r="D3">
-        <v>1.040069383033446</v>
+        <v>1.02777666651168</v>
       </c>
       <c r="E3">
-        <v>1.050344663540063</v>
+        <v>1.028323068994689</v>
       </c>
       <c r="F3">
-        <v>1.057326228297207</v>
+        <v>1.030842916128006</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037655478765406</v>
+        <v>1.046051905394152</v>
       </c>
       <c r="J3">
-        <v>1.041839716938501</v>
+        <v>1.033434683907128</v>
       </c>
       <c r="K3">
-        <v>1.042665261404103</v>
+        <v>1.038066059634001</v>
       </c>
       <c r="L3">
-        <v>1.05291372443103</v>
+        <v>1.038605936118167</v>
       </c>
       <c r="M3">
-        <v>1.059877388718409</v>
+        <v>1.041095798201884</v>
       </c>
       <c r="N3">
-        <v>1.017881637530269</v>
+        <v>1.014931836829934</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.037648672763576</v>
+        <v>1.015897504089894</v>
       </c>
       <c r="D4">
-        <v>1.040491227766665</v>
+        <v>1.029668170553076</v>
       </c>
       <c r="E4">
-        <v>1.050920868549684</v>
+        <v>1.030801517038169</v>
       </c>
       <c r="F4">
-        <v>1.057994263567493</v>
+        <v>1.033676267958414</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03777668340538</v>
+        <v>1.046751681219596</v>
       </c>
       <c r="J4">
-        <v>1.042171646524717</v>
+        <v>1.034903110566979</v>
       </c>
       <c r="K4">
-        <v>1.04296388741798</v>
+        <v>1.039421242308532</v>
       </c>
       <c r="L4">
-        <v>1.053367676425191</v>
+        <v>1.040541881563194</v>
       </c>
       <c r="M4">
-        <v>1.060423850578005</v>
+        <v>1.043384554153091</v>
       </c>
       <c r="N4">
-        <v>1.017992928876836</v>
+        <v>1.015428212384021</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037885379886713</v>
+        <v>1.016977751137905</v>
       </c>
       <c r="D5">
-        <v>1.04066865901973</v>
+        <v>1.030455405329026</v>
       </c>
       <c r="E5">
-        <v>1.051163328559539</v>
+        <v>1.03183354260037</v>
       </c>
       <c r="F5">
-        <v>1.058275406843219</v>
+        <v>1.034856249629593</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037827407612378</v>
+        <v>1.047040635401146</v>
       </c>
       <c r="J5">
-        <v>1.042311157919192</v>
+        <v>1.035513138374781</v>
       </c>
       <c r="K5">
-        <v>1.043089353776195</v>
+        <v>1.039983902128921</v>
       </c>
       <c r="L5">
-        <v>1.053558588861722</v>
+        <v>1.041347004918607</v>
       </c>
       <c r="M5">
-        <v>1.060653738498734</v>
+        <v>1.044336908382397</v>
       </c>
       <c r="N5">
-        <v>1.018039693073232</v>
+        <v>1.015634375395965</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037925131289159</v>
+        <v>1.017158455341746</v>
       </c>
       <c r="D6">
-        <v>1.040698455607707</v>
+        <v>1.030587125674653</v>
       </c>
       <c r="E6">
-        <v>1.051204051720465</v>
+        <v>1.032006252303772</v>
       </c>
       <c r="F6">
-        <v>1.058322629659773</v>
+        <v>1.035053730580779</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037835910912477</v>
+        <v>1.0470888483988</v>
       </c>
       <c r="J6">
-        <v>1.04233458060097</v>
+        <v>1.035615142593625</v>
       </c>
       <c r="K6">
-        <v>1.043110415640825</v>
+        <v>1.040077966541708</v>
       </c>
       <c r="L6">
-        <v>1.053590648028277</v>
+        <v>1.041481683309234</v>
       </c>
       <c r="M6">
-        <v>1.060692346763942</v>
+        <v>1.044496244995123</v>
       </c>
       <c r="N6">
-        <v>1.018047543645537</v>
+        <v>1.015668845613018</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.037651835170044</v>
+        <v>1.015911983804142</v>
       </c>
       <c r="D7">
-        <v>1.040493598268967</v>
+        <v>1.029678720573771</v>
       </c>
       <c r="E7">
-        <v>1.050924107436163</v>
+        <v>1.030815345537473</v>
       </c>
       <c r="F7">
-        <v>1.057998019035803</v>
+        <v>1.033692078265996</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037777362090067</v>
+        <v>1.046755562653623</v>
       </c>
       <c r="J7">
-        <v>1.042173510809066</v>
+        <v>1.034911290198542</v>
       </c>
       <c r="K7">
-        <v>1.042965564205644</v>
+        <v>1.039428788090719</v>
       </c>
       <c r="L7">
-        <v>1.053370227129013</v>
+        <v>1.040552673685377</v>
       </c>
       <c r="M7">
-        <v>1.060426921742863</v>
+        <v>1.043397317799873</v>
       </c>
       <c r="N7">
-        <v>1.017993553831962</v>
+        <v>1.015430976931681</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.036510558065185</v>
+        <v>1.010601729425722</v>
       </c>
       <c r="D8">
-        <v>1.039638076691508</v>
+        <v>1.0258136167142</v>
       </c>
       <c r="E8">
-        <v>1.049755886215468</v>
+        <v>1.025752521655529</v>
       </c>
       <c r="F8">
-        <v>1.056643760164238</v>
+        <v>1.02790482598061</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037530685297382</v>
+        <v>1.045317790303936</v>
       </c>
       <c r="J8">
-        <v>1.041499998281799</v>
+        <v>1.031906804912998</v>
       </c>
       <c r="K8">
-        <v>1.042359466612472</v>
+        <v>1.036654920147974</v>
       </c>
       <c r="L8">
-        <v>1.052449509839828</v>
+        <v>1.036594601502767</v>
       </c>
       <c r="M8">
-        <v>1.059318810529987</v>
+        <v>1.038719623182247</v>
       </c>
       <c r="N8">
-        <v>1.017767693787905</v>
+        <v>1.014415213762633</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.034503548674164</v>
+        <v>1.000839389123029</v>
       </c>
       <c r="D9">
-        <v>1.038133461459059</v>
+        <v>1.018729983055039</v>
       </c>
       <c r="E9">
-        <v>1.047704592443709</v>
+        <v>1.016487575071599</v>
       </c>
       <c r="F9">
-        <v>1.054267130433082</v>
+        <v>1.017318436713184</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037088688891084</v>
+        <v>1.042608160121451</v>
       </c>
       <c r="J9">
-        <v>1.040312245124468</v>
+        <v>1.026362541176627</v>
       </c>
       <c r="K9">
-        <v>1.041289095281954</v>
+        <v>1.031526316439275</v>
       </c>
       <c r="L9">
-        <v>1.050829455197794</v>
+        <v>1.029318698963502</v>
       </c>
       <c r="M9">
-        <v>1.057371247747656</v>
+        <v>1.030136647100828</v>
       </c>
       <c r="N9">
-        <v>1.017369004555578</v>
+        <v>1.012539511908098</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.033168353533969</v>
+        <v>0.9940313130362983</v>
       </c>
       <c r="D10">
-        <v>1.037132440965156</v>
+        <v>1.013807962704041</v>
       </c>
       <c r="E10">
-        <v>1.046342033799903</v>
+        <v>1.010056649197219</v>
       </c>
       <c r="F10">
-        <v>1.052689349736648</v>
+        <v>1.009971872436308</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036789137746173</v>
+        <v>1.040675630282618</v>
       </c>
       <c r="J10">
-        <v>1.039519840815798</v>
+        <v>1.022483759521606</v>
       </c>
       <c r="K10">
-        <v>1.040573998334805</v>
+        <v>1.027932306620772</v>
       </c>
       <c r="L10">
-        <v>1.049751083940311</v>
+        <v>1.02424667110391</v>
       </c>
       <c r="M10">
-        <v>1.056076360144942</v>
+        <v>1.024163385922007</v>
       </c>
       <c r="N10">
-        <v>1.017102768435459</v>
+        <v>1.011226596339444</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.032590882061627</v>
+        <v>0.9910056011719811</v>
       </c>
       <c r="D11">
-        <v>1.036699494919174</v>
+        <v>1.011625464199822</v>
       </c>
       <c r="E11">
-        <v>1.045753228322652</v>
+        <v>1.007206096133718</v>
       </c>
       <c r="F11">
-        <v>1.052007745808406</v>
+        <v>1.006715531803692</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036658276999531</v>
+        <v>1.039807057155044</v>
       </c>
       <c r="J11">
-        <v>1.039176599000597</v>
+        <v>1.020757404532463</v>
       </c>
       <c r="K11">
-        <v>1.040264007265977</v>
+        <v>1.026331421692337</v>
       </c>
       <c r="L11">
-        <v>1.049284547667994</v>
+        <v>1.021993383629563</v>
       </c>
       <c r="M11">
-        <v>1.055516503061359</v>
+        <v>1.021511904611155</v>
       </c>
       <c r="N11">
-        <v>1.016987385132502</v>
+        <v>1.010642134001702</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.032376486392703</v>
+        <v>0.9898694277064581</v>
       </c>
       <c r="D12">
-        <v>1.036538756504472</v>
+        <v>1.010806737695699</v>
       </c>
       <c r="E12">
-        <v>1.045534700225387</v>
+        <v>1.006136861395593</v>
       </c>
       <c r="F12">
-        <v>1.05175480738341</v>
+        <v>1.005494071572397</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036609496815501</v>
+        <v>1.039479486880796</v>
       </c>
       <c r="J12">
-        <v>1.039049085872673</v>
+        <v>1.020108807046759</v>
       </c>
       <c r="K12">
-        <v>1.040148811353839</v>
+        <v>1.025729785554349</v>
       </c>
       <c r="L12">
-        <v>1.049111317484688</v>
+        <v>1.021147425750148</v>
       </c>
       <c r="M12">
-        <v>1.055308674376457</v>
+        <v>1.020516765399222</v>
       </c>
       <c r="N12">
-        <v>1.016944511814853</v>
+        <v>1.010422536129636</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.032422470312568</v>
+        <v>0.990113707042134</v>
       </c>
       <c r="D13">
-        <v>1.036573231929887</v>
+        <v>1.010982727460504</v>
       </c>
       <c r="E13">
-        <v>1.045581567053494</v>
+        <v>1.006366695580934</v>
       </c>
       <c r="F13">
-        <v>1.051809052668002</v>
+        <v>1.005756628094188</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036619968135384</v>
+        <v>1.039549978366689</v>
       </c>
       <c r="J13">
-        <v>1.039076438662089</v>
+        <v>1.020248271459479</v>
       </c>
       <c r="K13">
-        <v>1.040173523578139</v>
+        <v>1.025859159953748</v>
       </c>
       <c r="L13">
-        <v>1.049148473114462</v>
+        <v>1.021329300169511</v>
       </c>
       <c r="M13">
-        <v>1.055353248559613</v>
+        <v>1.020730698722715</v>
       </c>
       <c r="N13">
-        <v>1.016953708951329</v>
+        <v>1.010469755615799</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.032573157941337</v>
+        <v>0.9909119390562857</v>
       </c>
       <c r="D14">
-        <v>1.036686206651518</v>
+        <v>1.011557954331018</v>
       </c>
       <c r="E14">
-        <v>1.045735161031798</v>
+        <v>1.007117928320902</v>
       </c>
       <c r="F14">
-        <v>1.051986832942865</v>
+        <v>1.006614812138763</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036654248333551</v>
+        <v>1.039780081960192</v>
       </c>
       <c r="J14">
-        <v>1.039166059083569</v>
+        <v>1.020703943162097</v>
       </c>
       <c r="K14">
-        <v>1.040254486178888</v>
+        <v>1.026281834706815</v>
       </c>
       <c r="L14">
-        <v>1.049270227131853</v>
+        <v>1.021923642291491</v>
       </c>
       <c r="M14">
-        <v>1.055499321275833</v>
+        <v>1.021429858372649</v>
       </c>
       <c r="N14">
-        <v>1.016983841510739</v>
+        <v>1.010624033652056</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032666015242134</v>
+        <v>0.9914021089207823</v>
       </c>
       <c r="D15">
-        <v>1.036755824358545</v>
+        <v>1.011911293061737</v>
       </c>
       <c r="E15">
-        <v>1.045829819309829</v>
+        <v>1.007579392106178</v>
       </c>
       <c r="F15">
-        <v>1.052096401032404</v>
+        <v>1.007141970582325</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036675346630788</v>
+        <v>1.039921196052835</v>
       </c>
       <c r="J15">
-        <v>1.039221274850425</v>
+        <v>1.020983713403844</v>
       </c>
       <c r="K15">
-        <v>1.040304363126556</v>
+        <v>1.026541322610113</v>
       </c>
       <c r="L15">
-        <v>1.049345252073927</v>
+        <v>1.022288632483913</v>
       </c>
       <c r="M15">
-        <v>1.055589338386506</v>
+        <v>1.021859258769031</v>
       </c>
       <c r="N15">
-        <v>1.017002405223026</v>
+        <v>1.010718754592475</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.033206692781392</v>
+        <v>0.9942304302583072</v>
       </c>
       <c r="D16">
-        <v>1.037161184885424</v>
+        <v>1.0139516989608</v>
       </c>
       <c r="E16">
-        <v>1.046381136107931</v>
+        <v>1.010244399459648</v>
       </c>
       <c r="F16">
-        <v>1.052734619070433</v>
+        <v>1.010186349016447</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036797798296354</v>
+        <v>1.040732590916053</v>
       </c>
       <c r="J16">
-        <v>1.039542618087352</v>
+        <v>1.022597318892667</v>
       </c>
       <c r="K16">
-        <v>1.040594564150905</v>
+        <v>1.028037587137568</v>
       </c>
       <c r="L16">
-        <v>1.04978205506613</v>
+        <v>1.02439497738782</v>
       </c>
       <c r="M16">
-        <v>1.056113533777492</v>
+        <v>1.024337944775872</v>
       </c>
       <c r="N16">
-        <v>1.017110423944891</v>
+        <v>1.011265040121645</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.033546027613846</v>
+        <v>0.9959833250147621</v>
       </c>
       <c r="D17">
-        <v>1.037415592436812</v>
+        <v>1.01521763346731</v>
       </c>
       <c r="E17">
-        <v>1.046727282585935</v>
+        <v>1.01189809028631</v>
       </c>
       <c r="F17">
-        <v>1.053135381871797</v>
+        <v>1.012075448784295</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036874300666995</v>
+        <v>1.041232933941876</v>
       </c>
       <c r="J17">
-        <v>1.039744155326427</v>
+        <v>1.023596738026507</v>
       </c>
       <c r="K17">
-        <v>1.040776506799338</v>
+        <v>1.028964001705312</v>
       </c>
       <c r="L17">
-        <v>1.050056159496528</v>
+        <v>1.025700670152429</v>
       </c>
       <c r="M17">
-        <v>1.056442572910964</v>
+        <v>1.025875013304039</v>
       </c>
       <c r="N17">
-        <v>1.017178154394159</v>
+        <v>1.01160336557559</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033744021100403</v>
+        <v>0.996998298077456</v>
       </c>
       <c r="D18">
-        <v>1.037564032431735</v>
+        <v>1.015951113492789</v>
       </c>
       <c r="E18">
-        <v>1.046929298824461</v>
+        <v>1.01285633586126</v>
       </c>
       <c r="F18">
-        <v>1.053369292918481</v>
+        <v>1.013170113166884</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036918811907514</v>
+        <v>1.041521721759985</v>
       </c>
       <c r="J18">
-        <v>1.039861696408628</v>
+        <v>1.024175187700874</v>
       </c>
       <c r="K18">
-        <v>1.040882597087329</v>
+        <v>1.029500075424854</v>
       </c>
       <c r="L18">
-        <v>1.050216079025416</v>
+        <v>1.026456781850171</v>
       </c>
       <c r="M18">
-        <v>1.056634576618494</v>
+        <v>1.026765320764248</v>
       </c>
       <c r="N18">
-        <v>1.01721765061801</v>
+        <v>1.011799172463662</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.033811542786831</v>
+        <v>0.9973431299314685</v>
       </c>
       <c r="D19">
-        <v>1.037614654792283</v>
+        <v>1.016200387375194</v>
       </c>
       <c r="E19">
-        <v>1.046998200577571</v>
+        <v>1.013182015058851</v>
       </c>
       <c r="F19">
-        <v>1.053449076429566</v>
+        <v>1.013542159384753</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036933970194954</v>
+        <v>1.041619677943409</v>
       </c>
       <c r="J19">
-        <v>1.039901772783151</v>
+        <v>1.024371671079462</v>
       </c>
       <c r="K19">
-        <v>1.040918765371834</v>
+        <v>1.029682143783814</v>
       </c>
       <c r="L19">
-        <v>1.050270614038787</v>
+        <v>1.026713679560591</v>
       </c>
       <c r="M19">
-        <v>1.056700058577856</v>
+        <v>1.027067848875673</v>
       </c>
       <c r="N19">
-        <v>1.017231116135072</v>
+        <v>1.011865680659436</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.033509613442642</v>
+        <v>0.9957960319522894</v>
       </c>
       <c r="D20">
-        <v>1.037388291899532</v>
+        <v>1.015082321862421</v>
       </c>
       <c r="E20">
-        <v>1.046690132454151</v>
+        <v>1.011721322639441</v>
       </c>
       <c r="F20">
-        <v>1.053092367992148</v>
+        <v>1.011873516866917</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036866104194609</v>
+        <v>1.041179568932216</v>
       </c>
       <c r="J20">
-        <v>1.039722533540406</v>
+        <v>1.02348997694849</v>
       </c>
       <c r="K20">
-        <v>1.040756989561463</v>
+        <v>1.028865051760152</v>
       </c>
       <c r="L20">
-        <v>1.050026746637055</v>
+        <v>1.025561151070021</v>
       </c>
       <c r="M20">
-        <v>1.056407261764449</v>
+        <v>1.025710749146916</v>
       </c>
       <c r="N20">
-        <v>1.017170888568862</v>
+        <v>1.01156722571745</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.03252878133844</v>
+        <v>0.9906772239282789</v>
       </c>
       <c r="D21">
-        <v>1.036652936273236</v>
+        <v>1.01138878949702</v>
       </c>
       <c r="E21">
-        <v>1.04568992643958</v>
+        <v>1.006897000682781</v>
       </c>
       <c r="F21">
-        <v>1.051934474456836</v>
+        <v>1.006362432187783</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036644158431739</v>
+        <v>1.039712460070459</v>
       </c>
       <c r="J21">
-        <v>1.039139668587279</v>
+        <v>1.020569964825535</v>
       </c>
       <c r="K21">
-        <v>1.040230646122002</v>
+        <v>1.026157563054614</v>
       </c>
       <c r="L21">
-        <v>1.049234371882585</v>
+        <v>1.02174887487267</v>
       </c>
       <c r="M21">
-        <v>1.05545630298092</v>
+        <v>1.021224260648136</v>
       </c>
       <c r="N21">
-        <v>1.016974968628971</v>
+        <v>1.010578672571027</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.031912689517502</v>
+        <v>0.9873873948614007</v>
       </c>
       <c r="D22">
-        <v>1.036191035401007</v>
+        <v>1.009019757230706</v>
       </c>
       <c r="E22">
-        <v>1.045062102118062</v>
+        <v>1.003803239357559</v>
       </c>
       <c r="F22">
-        <v>1.051207847919715</v>
+        <v>1.002828155195509</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036503613553379</v>
+        <v>1.038761336627082</v>
       </c>
       <c r="J22">
-        <v>1.038773095577817</v>
+        <v>1.018691325912033</v>
       </c>
       <c r="K22">
-        <v>1.039899416098033</v>
+        <v>1.024414623904288</v>
       </c>
       <c r="L22">
-        <v>1.048736534676149</v>
+        <v>1.019299727975157</v>
       </c>
       <c r="M22">
-        <v>1.054859133823249</v>
+        <v>1.018343793207213</v>
       </c>
       <c r="N22">
-        <v>1.016851700431528</v>
+        <v>1.009942594353265</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.032239234508465</v>
+        <v>0.9891383788753928</v>
       </c>
       <c r="D23">
-        <v>1.036435854966131</v>
+        <v>1.010280181984969</v>
       </c>
       <c r="E23">
-        <v>1.045394824131229</v>
+        <v>1.00544921558574</v>
       </c>
       <c r="F23">
-        <v>1.051592914441809</v>
+        <v>1.004708518657496</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036578213534102</v>
+        <v>1.03926832454581</v>
       </c>
       <c r="J23">
-        <v>1.038967432256669</v>
+        <v>1.019691388262078</v>
       </c>
       <c r="K23">
-        <v>1.040075035199212</v>
+        <v>1.025342541250357</v>
       </c>
       <c r="L23">
-        <v>1.049000413041556</v>
+        <v>1.020603161563387</v>
       </c>
       <c r="M23">
-        <v>1.055175634259572</v>
+        <v>1.01987660886422</v>
       </c>
       <c r="N23">
-        <v>1.016917055211829</v>
+        <v>1.01028120593538</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.033526067237787</v>
+        <v>0.9958806846374925</v>
       </c>
       <c r="D24">
-        <v>1.037400627687908</v>
+        <v>1.015143478525599</v>
       </c>
       <c r="E24">
-        <v>1.046706918644878</v>
+        <v>1.01180121583756</v>
       </c>
       <c r="F24">
-        <v>1.053111803640605</v>
+        <v>1.011964783462658</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03686980817162</v>
+        <v>1.041203691707867</v>
       </c>
       <c r="J24">
-        <v>1.039732303532553</v>
+        <v>1.023538231550817</v>
       </c>
       <c r="K24">
-        <v>1.040765808665644</v>
+        <v>1.028909776212306</v>
       </c>
       <c r="L24">
-        <v>1.050040036921655</v>
+        <v>1.02562421063299</v>
       </c>
       <c r="M24">
-        <v>1.056423217102243</v>
+        <v>1.025784992292466</v>
       </c>
       <c r="N24">
-        <v>1.017174171712889</v>
+        <v>1.01158356049246</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.035021918877716</v>
+        <v>1.003413917801486</v>
       </c>
       <c r="D25">
-        <v>1.038522084779374</v>
+        <v>1.020595211174202</v>
       </c>
       <c r="E25">
-        <v>1.048234031448076</v>
+        <v>1.018925818229903</v>
       </c>
       <c r="F25">
-        <v>1.054880382272506</v>
+        <v>1.020104070719039</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037203819467953</v>
+        <v>1.043330298179051</v>
       </c>
       <c r="J25">
-        <v>1.040619412584745</v>
+        <v>1.027826933693298</v>
       </c>
       <c r="K25">
-        <v>1.041566083825987</v>
+        <v>1.032882009543168</v>
       </c>
       <c r="L25">
-        <v>1.051247990072506</v>
+        <v>1.031237271332355</v>
       </c>
       <c r="M25">
-        <v>1.057874130445436</v>
+        <v>1.032398111942631</v>
       </c>
       <c r="N25">
-        <v>1.017472155167944</v>
+        <v>1.013035066171356</v>
       </c>
     </row>
   </sheetData>
